--- a/docss/trend/switzerland/E_neuron.xlsx
+++ b/docss/trend/switzerland/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\switzerland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\switzerland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,202 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>1.5022664489224553</v>
+        <v>1.502</v>
       </c>
       <c r="C2" s="6">
-        <v>1.8222557902336121</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="D2" s="6">
-        <v>1.2003678791224957</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>1.3182158917188644</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="C3" s="6">
-        <v>1.7037364840507507</v>
+        <v>1.704</v>
       </c>
       <c r="D3" s="6">
-        <v>1.0335317514836788</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>1.034</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>1.5052468506619334</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="C4" s="6">
-        <v>1.8379898406565189</v>
+        <v>1.8380000000000001</v>
       </c>
       <c r="D4" s="6">
-        <v>1.2187395766377449</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>1.2190000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>1.4615249019116163</v>
+        <v>1.462</v>
       </c>
       <c r="C5" s="6">
-        <v>1.8056854140013456</v>
+        <v>1.806</v>
       </c>
       <c r="D5" s="6">
-        <v>1.1393198538571596</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>1.139</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>1.4743999931961298</v>
+        <v>1.474</v>
       </c>
       <c r="C6" s="6">
-        <v>1.7719261348247528</v>
+        <v>1.772</v>
       </c>
       <c r="D6" s="6">
-        <v>1.22242321819067</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>1.222</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>1.6571301333606243</v>
+        <v>1.657</v>
       </c>
       <c r="C7" s="6">
-        <v>1.9576966688036919</v>
+        <v>1.958</v>
       </c>
       <c r="D7" s="6">
-        <v>1.3768403977155685</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>1.377</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>1.4256352931261063</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="C8" s="6">
-        <v>1.5200752019882202</v>
+        <v>1.52</v>
       </c>
       <c r="D8" s="6">
-        <v>1.3542922772467136</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>1.3540000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>1.731480099260807</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="C9" s="6">
-        <v>2.1806068606674671</v>
+        <v>2.181</v>
       </c>
       <c r="D9" s="6">
-        <v>1.3749267272651196</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>1.375</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>1.7806342979893088</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="C10" s="6">
-        <v>2.3638511411845684</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="D10" s="6">
-        <v>1.2851997427642345</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>1.2849999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>1.6058262540027499</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>1.9513066112995148</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="D11" s="6">
-        <v>1.2967499624937773</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>1.2969999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>1.8250993397086859</v>
+        <v>1.825</v>
       </c>
       <c r="C12" s="6">
-        <v>2.2591576911509037</v>
+        <v>2.2589999999999999</v>
       </c>
       <c r="D12" s="6">
-        <v>1.4406153429299593</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>1.4410000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>1.6936215199530125</v>
+        <v>1.694</v>
       </c>
       <c r="C13" s="6">
-        <v>1.8739986196160316</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="D13" s="6">
-        <v>1.5099733509123325</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>1.51</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>1.6937157148495317</v>
+        <v>1.694</v>
       </c>
       <c r="C14" s="6">
-        <v>2.0786494743078947</v>
+        <v>2.0790000000000002</v>
       </c>
       <c r="D14" s="6">
-        <v>1.3489669505506754</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>1.349</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
